--- a/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -164,12 +164,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,6 +177,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -185,7 +192,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +218,105 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,123 +328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,192 +356,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -544,16 +551,106 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,26 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,19 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,8 +712,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,152 +742,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,16 +900,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +985,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1226,7 +1341,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1243,29 +1358,29 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="b">
@@ -1276,7 +1391,7 @@
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="b">
@@ -1287,7 +1402,7 @@
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="b">
@@ -1298,7 +1413,7 @@
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="b">
@@ -1307,18 +1422,17 @@
       <c r="C6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:3">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1493,13 +1607,13 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
@@ -1650,13 +1764,13 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_MemberList" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_ApplyList" sheetId="3" r:id="rId3"/>
-    <sheet name="Component" sheetId="4" r:id="rId4"/>
+    <sheet name="Record" sheetId="2" r:id="rId2"/>
+    <sheet name="Component" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Id</t>
   </si>
@@ -61,21 +60,15 @@
     <t>会长名</t>
   </si>
   <si>
+    <t>MemberList</t>
+  </si>
+  <si>
     <t>Row</t>
   </si>
   <si>
     <t>Col</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>SaveInterval</t>
-  </si>
-  <si>
-    <t>RelationValue</t>
-  </si>
-  <si>
     <t>GUID</t>
   </si>
   <si>
@@ -103,42 +96,19 @@
     <t>Title</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ameID</t>
-    </r>
-  </si>
-  <si>
-    <t>MemberList</t>
-  </si>
-  <si>
-    <t>Friend</t>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>guild</t>
   </si>
   <si>
-    <t>int</t>
+    <t>ApplyList</t>
   </si>
   <si>
     <t>Power</t>
-  </si>
-  <si>
-    <t>ApplyList</t>
   </si>
   <si>
     <t>TeamApply</t>
@@ -164,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,6 +155,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,82 +175,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -288,48 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,43 +326,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +526,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -571,7 +541,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -636,36 +606,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,8 +628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,9 +651,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,13 +669,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,169 +712,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -912,16 +885,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +952,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1340,7 +1307,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
@@ -1357,82 +1324,82 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:3">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:3">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:3">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:3">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:3">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:6">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1452,13 +1419,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1475,148 +1442,256 @@
     <col min="19" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 D1:F7 A14:B16 D20:F1048576 D10:F17">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C7 C10:C17 C20:C16382 C16383:C16393 A2:B3 A12:B13 B16394:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:B21 A8:A9 A18:A19 L1:L9 L10:L19 L20:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A22:B22 B8:B9 B18:B19 M1:M9 M10:M19 M20:M1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1625,162 +1700,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -1798,13 +1717,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -1812,16 +1731,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -134,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -168,91 +171,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,25 +233,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +247,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -326,13 +329,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +467,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,140 +513,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -559,6 +562,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -604,8 +620,80 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +709,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,56 +730,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -712,152 +741,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,21 +909,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,38 +1340,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1347,7 +1376,7 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="b">
@@ -1358,7 +1387,7 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="b">
@@ -1369,7 +1398,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="b">
@@ -1379,8 +1408,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:3">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="b">
@@ -1389,24 +1418,33 @@
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:3">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F3 B6:C6 F7:F1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:C7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1421,7 +1459,7 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1447,12 +1485,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -1460,7 +1498,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -1500,34 +1538,34 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:10">
@@ -1538,36 +1576,36 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:2">
@@ -1575,12 +1613,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>50</v>
@@ -1588,7 +1626,7 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>7</v>
@@ -1628,25 +1666,25 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:7">
@@ -1657,27 +1695,27 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1685,13 +1723,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 D1:F7 A14:B16 D20:F1048576 D10:F17">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C7 C10:C17 C20:C16382 C16383:C16393 A2:B3 A12:B13 B16394:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:B21 A8:A9 A18:A19 L1:L9 L10:L19 L20:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A22:B22 B8:B9 B18:B19 M1:M9 M10:M19 M20:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C7 C10:C17 C20:C16382 C16383:C16393 A2:B3 A12:B13 B16394:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1717,39 +1755,39 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,20 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -135,14 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -156,159 +163,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,194 +183,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -638,251 +308,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,61 +361,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1001,12 +381,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1338,22 +723,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
@@ -1448,39 +833,38 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="16" max="17" width="16.5" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1504,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1536,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:10">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:10">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1624,7 +1008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:2">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1656,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:7">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1731,29 +1115,28 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1767,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1790,7 +1173,7 @@
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -143,13 +143,17 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -160,6 +164,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -362,7 +371,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -390,6 +399,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -724,21 +736,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -749,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -760,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -771,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -782,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -793,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -804,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -815,21 +827,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:C7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -847,24 +871,24 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="17" width="16.5" customWidth="1"/>
+    <col min="16" max="17" width="16.453125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -880,7 +904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -888,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -896,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -904,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -912,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -920,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -952,7 +976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1103,6 +1127,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 D1:F7 A14:B16 D20:F1048576 D10:F17">
       <formula1>"TRUE,FALSE"</formula1>
@@ -1129,14 +1154,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1165,6 +1190,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Team.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Upload</t>
@@ -738,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -865,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -946,111 +950,111 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>1</v>
@@ -1058,7 +1062,7 @@
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -1066,77 +1070,93 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 G1:G7 G10:G17 G20:G1048576 A4:B6 D1:F7 A14:B16 D20:F1048576 D10:F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G19 B7:B8 A4:B6 D1:G8 A15:B17 D22:G1048576 B18:B19">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:B21 A8:A9 A18:A19 L1:L9 L10:L19 L20:L1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A23:B23 A9:A10 A20:A21 L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A22:B22 B8:B9 B18:B19 M1:M9 M10:M19 M20:M1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C7 C10:C17 C20:C16382 C16383:C16393 A2:B3 A12:B13 B16394:C1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A24:B24 B9:B10 B20:B21 M1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 B16396:C1048576 C22:C16395 A2:B3 A13:B14 C11:C19">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
